--- a/printer_box/color_sheet.xlsx
+++ b/printer_box/color_sheet.xlsx
@@ -8,12 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator.DESKTOP-QSF3VEN\Documents\everythin_new\voyager\transform_2023\printer_box\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE13C6A-A0D2-4CDC-AC7C-80CDBEC11957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF3AFBE-B533-4022-A9B1-86A8145D132C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F3C4C702-C153-4D61-87CE-A8BCAADA5423}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{F3C4C702-C153-4D61-87CE-A8BCAADA5423}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="pandas_topics" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
+    <sheet name="days_tracker" sheetId="2" r:id="rId3"/>
+    <sheet name="10_things" sheetId="3" r:id="rId4"/>
+    <sheet name="books" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>#</t>
   </si>
@@ -148,13 +153,214 @@
   </si>
   <si>
     <t xml:space="preserve">SQL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">task </t>
+  </si>
+  <si>
+    <t xml:space="preserve">date </t>
+  </si>
+  <si>
+    <t>pushed_at</t>
+  </si>
+  <si>
+    <t xml:space="preserve">given_at </t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>goal</t>
+  </si>
+  <si>
+    <t>Pandas  GHIJ</t>
+  </si>
+  <si>
+    <t>Book</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>The Wise Men: Six Friends and the World They Made (with Evan Thomas)</t>
+  </si>
+  <si>
+    <t>Kissinger: A Biography</t>
+  </si>
+  <si>
+    <t>Benjamin Franklin: An American Life</t>
+  </si>
+  <si>
+    <t>Einstein: His Life and Universe</t>
+  </si>
+  <si>
+    <t>American Sketches</t>
+  </si>
+  <si>
+    <t>Steve Jobs</t>
+  </si>
+  <si>
+    <t>The Innovators: How a Group of Hackers, Geniuses, and Geeks Created the Digital Revolution</t>
+  </si>
+  <si>
+    <t>Leonardo da Vinci</t>
+  </si>
+  <si>
+    <t>The Code Breaker: Jennifer Doudna, Gene Editing, and the Future of the Human Race</t>
+  </si>
+  <si>
+    <t>Elon Musk</t>
+  </si>
+  <si>
+    <t>Walter Isaacson's Books</t>
+  </si>
+  <si>
+    <t>Moonwalk</t>
+  </si>
+  <si>
+    <t>Push</t>
+  </si>
+  <si>
+    <t>Virtue of Selfishness</t>
+  </si>
+  <si>
+    <t>Meaning and Interpretation</t>
+  </si>
+  <si>
+    <t>Both Flesh and Not</t>
+  </si>
+  <si>
+    <t>Climate Basics</t>
+  </si>
+  <si>
+    <t>The Tate mindset</t>
+  </si>
+  <si>
+    <t>Beyond the Pleasure Principle</t>
+  </si>
+  <si>
+    <t>Conquests and Cultures</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>iWoz</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Data Preprocessing for Numerical Columns</t>
+  </si>
+  <si>
+    <t>Exploratory Data Analysis (EDA) for Numerical Columns</t>
+  </si>
+  <si>
+    <t>Handling Missing Values</t>
+  </si>
+  <si>
+    <t>- Imputation using mean, median, mode, or a model.&lt;br&gt; - Removing rows with missing values.</t>
+  </si>
+  <si>
+    <t>Handling Outliers</t>
+  </si>
+  <si>
+    <t>- Truncation.&lt;br&gt; - Transformation.&lt;br&gt; - Imputation.</t>
+  </si>
+  <si>
+    <t>- Box Plots to visualize outliers.</t>
+  </si>
+  <si>
+    <t>Normalization</t>
+  </si>
+  <si>
+    <t>- Scaling features to a standard range (0 to 1).</t>
+  </si>
+  <si>
+    <t>Standardization</t>
+  </si>
+  <si>
+    <t>- Shifting distribution to have mean of zero and standard deviation of one.</t>
+  </si>
+  <si>
+    <t>Feature Engineering</t>
+  </si>
+  <si>
+    <t>- Creating new meaningful features from existing ones.</t>
+  </si>
+  <si>
+    <t>Dimensionality Reduction</t>
+  </si>
+  <si>
+    <t>- Techniques like PCA for reducing the number of input variables.</t>
+  </si>
+  <si>
+    <t>Splitting Data</t>
+  </si>
+  <si>
+    <t>- Dividing data into features (X) and target (y), then into training and testing sets.</t>
+  </si>
+  <si>
+    <t>Summary Statistics</t>
+  </si>
+  <si>
+    <t>- Understanding mean, median, mode, min, max, range, quartiles, variance, and standard deviation.</t>
+  </si>
+  <si>
+    <t>Distribution Analysis</t>
+  </si>
+  <si>
+    <t>- Analyzing distribution of each numerical feature; understanding skewness and kurtosis.</t>
+  </si>
+  <si>
+    <t>Correlation Analysis</t>
+  </si>
+  <si>
+    <t>- Identifying relationships between numerical features and target variable.</t>
+  </si>
+  <si>
+    <t>Pairwise Relationships</t>
+  </si>
+  <si>
+    <t>- Exploring scatter plots and correlation matrices between numerical features.</t>
+  </si>
+  <si>
+    <t>Trend Analysis</t>
+  </si>
+  <si>
+    <t>- Identifying trends and patterns within the data.</t>
+  </si>
+  <si>
+    <t>Box Plots</t>
+  </si>
+  <si>
+    <t>- Visualizing central tendency, spread of distribution, and presence of outliers.</t>
+  </si>
+  <si>
+    <t>Histograms</t>
+  </si>
+  <si>
+    <t>- Viewing frequency distribution of each numerical feature.</t>
+  </si>
+  <si>
+    <t>Density Plots</t>
+  </si>
+  <si>
+    <t>- Visualizing distribution of data over continuous interval or time span.</t>
+  </si>
+  <si>
+    <t>Time Series Analysis (if applicable)</t>
+  </si>
+  <si>
+    <t>- Analyzing time-ordered data points.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,8 +389,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -206,6 +419,54 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -237,7 +498,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -256,6 +517,88 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -263,6 +606,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCCFF"/>
+      <color rgb="FFCCFF99"/>
+      <color rgb="FF6699FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -573,8 +923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EB3ACCF-ED76-47C2-AF87-E208DF101364}">
   <dimension ref="G1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.5"/>
@@ -1032,4 +1382,1025 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ECC3784-B6D6-4B63-970E-70BF3A376949}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52ACC3EA-9DD8-4C88-AF03-28777A66ED69}">
+  <dimension ref="E3:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="17.1796875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="20.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="17.1796875" style="9" customWidth="1"/>
+    <col min="11" max="11" width="14.36328125" style="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="5:10" ht="26" x14ac:dyDescent="0.6">
+      <c r="E3" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="5:10" ht="26" x14ac:dyDescent="0.6">
+      <c r="E4" s="13">
+        <v>45192</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+    </row>
+    <row r="5" spans="5:10" ht="26" x14ac:dyDescent="0.6">
+      <c r="E5" s="13">
+        <v>45193</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+    </row>
+    <row r="6" spans="5:10" ht="26" x14ac:dyDescent="0.6">
+      <c r="E6" s="13">
+        <v>45194</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+    </row>
+    <row r="7" spans="5:10" ht="26" x14ac:dyDescent="0.6">
+      <c r="E7" s="13">
+        <v>45195</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+    </row>
+    <row r="8" spans="5:10" ht="26" x14ac:dyDescent="0.6">
+      <c r="E8" s="13">
+        <v>45196</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+    </row>
+    <row r="9" spans="5:10" ht="26" x14ac:dyDescent="0.6">
+      <c r="E9" s="13">
+        <v>45197</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+    </row>
+    <row r="10" spans="5:10" ht="26" x14ac:dyDescent="0.6">
+      <c r="E10" s="13">
+        <v>45198</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+    </row>
+    <row r="11" spans="5:10" ht="26" x14ac:dyDescent="0.6">
+      <c r="E11" s="13">
+        <v>45199</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2035EA98-A336-41C5-B7F3-CB46ED376DB9}">
+  <dimension ref="F1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="5.26953125" style="18" customWidth="1"/>
+    <col min="7" max="7" width="38.54296875" style="17" customWidth="1"/>
+    <col min="8" max="8" width="8.7265625" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="6:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="F1" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+    </row>
+    <row r="2" spans="6:8" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="F2" s="19"/>
+      <c r="G2" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="6:8" ht="55.5" x14ac:dyDescent="0.45">
+      <c r="F3" s="22">
+        <v>1</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="19">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="4" spans="6:8" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="F4" s="22">
+        <v>2</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="19">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="5" spans="6:8" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F5" s="22">
+        <v>3</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="19">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="6" spans="6:8" ht="21.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F6" s="22">
+        <v>4</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="19">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="7" spans="6:8" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="F7" s="22">
+        <v>5</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="19">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="8" spans="6:8" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="F8" s="22">
+        <v>6</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="19">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="9" spans="6:8" ht="57.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F9" s="22">
+        <v>7</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="19">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="10" spans="6:8" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="F10" s="22">
+        <v>8</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="19">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="11" spans="6:8" ht="57.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F11" s="22">
+        <v>9</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="19">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="12" spans="6:8" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="F12" s="22">
+        <v>10</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="19">
+        <v>2023</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93D582EA-2618-45E4-9953-2C5CD242A31C}">
+  <dimension ref="E2:M21"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="8.7265625" style="9"/>
+    <col min="6" max="6" width="46.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="13" width="8.7265625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="5:13" ht="26" x14ac:dyDescent="0.6">
+      <c r="E2" s="14">
+        <v>1</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="26">
+        <v>1</v>
+      </c>
+      <c r="H2" s="26">
+        <v>2</v>
+      </c>
+      <c r="I2" s="27">
+        <v>3</v>
+      </c>
+      <c r="J2" s="27">
+        <v>4</v>
+      </c>
+      <c r="K2" s="28">
+        <v>5</v>
+      </c>
+      <c r="L2" s="28">
+        <v>6</v>
+      </c>
+      <c r="M2" s="28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="5:13" ht="26" x14ac:dyDescent="0.6">
+      <c r="E3" s="14"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="27">
+        <v>1</v>
+      </c>
+      <c r="H3" s="27">
+        <v>2</v>
+      </c>
+      <c r="I3" s="28">
+        <v>3</v>
+      </c>
+      <c r="J3" s="28">
+        <v>4</v>
+      </c>
+      <c r="K3" s="27">
+        <v>5</v>
+      </c>
+      <c r="L3" s="26">
+        <v>6</v>
+      </c>
+      <c r="M3" s="26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="5:13" ht="26" x14ac:dyDescent="0.6">
+      <c r="E4" s="14">
+        <v>2</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="26">
+        <v>1</v>
+      </c>
+      <c r="H4" s="26">
+        <v>2</v>
+      </c>
+      <c r="I4" s="27">
+        <v>3</v>
+      </c>
+      <c r="J4" s="27">
+        <v>4</v>
+      </c>
+      <c r="K4" s="28">
+        <v>5</v>
+      </c>
+      <c r="L4" s="28">
+        <v>6</v>
+      </c>
+      <c r="M4" s="28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="5:13" ht="26" x14ac:dyDescent="0.6">
+      <c r="E5" s="14"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="27">
+        <v>1</v>
+      </c>
+      <c r="H5" s="27">
+        <v>2</v>
+      </c>
+      <c r="I5" s="28">
+        <v>3</v>
+      </c>
+      <c r="J5" s="28">
+        <v>4</v>
+      </c>
+      <c r="K5" s="27">
+        <v>5</v>
+      </c>
+      <c r="L5" s="26">
+        <v>6</v>
+      </c>
+      <c r="M5" s="26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="5:13" ht="26" x14ac:dyDescent="0.6">
+      <c r="E6" s="14">
+        <v>3</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="26">
+        <v>1</v>
+      </c>
+      <c r="H6" s="26">
+        <v>2</v>
+      </c>
+      <c r="I6" s="27">
+        <v>3</v>
+      </c>
+      <c r="J6" s="27">
+        <v>4</v>
+      </c>
+      <c r="K6" s="28">
+        <v>5</v>
+      </c>
+      <c r="L6" s="28">
+        <v>6</v>
+      </c>
+      <c r="M6" s="28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="5:13" ht="26" x14ac:dyDescent="0.6">
+      <c r="E7" s="14"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="27">
+        <v>1</v>
+      </c>
+      <c r="H7" s="27">
+        <v>2</v>
+      </c>
+      <c r="I7" s="28">
+        <v>3</v>
+      </c>
+      <c r="J7" s="28">
+        <v>4</v>
+      </c>
+      <c r="K7" s="27">
+        <v>5</v>
+      </c>
+      <c r="L7" s="26">
+        <v>6</v>
+      </c>
+      <c r="M7" s="26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="5:13" ht="26" x14ac:dyDescent="0.6">
+      <c r="E8" s="14">
+        <v>4</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="26">
+        <v>1</v>
+      </c>
+      <c r="H8" s="26">
+        <v>2</v>
+      </c>
+      <c r="I8" s="27">
+        <v>3</v>
+      </c>
+      <c r="J8" s="27">
+        <v>4</v>
+      </c>
+      <c r="K8" s="28">
+        <v>5</v>
+      </c>
+      <c r="L8" s="28">
+        <v>6</v>
+      </c>
+      <c r="M8" s="28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="5:13" ht="26" x14ac:dyDescent="0.6">
+      <c r="E9" s="14"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="27">
+        <v>1</v>
+      </c>
+      <c r="H9" s="27">
+        <v>2</v>
+      </c>
+      <c r="I9" s="28">
+        <v>3</v>
+      </c>
+      <c r="J9" s="28">
+        <v>4</v>
+      </c>
+      <c r="K9" s="27">
+        <v>5</v>
+      </c>
+      <c r="L9" s="26">
+        <v>6</v>
+      </c>
+      <c r="M9" s="26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="5:13" ht="26" x14ac:dyDescent="0.6">
+      <c r="E10" s="14">
+        <v>5</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="26">
+        <v>1</v>
+      </c>
+      <c r="H10" s="26">
+        <v>2</v>
+      </c>
+      <c r="I10" s="27">
+        <v>3</v>
+      </c>
+      <c r="J10" s="27">
+        <v>4</v>
+      </c>
+      <c r="K10" s="28">
+        <v>5</v>
+      </c>
+      <c r="L10" s="27">
+        <v>6</v>
+      </c>
+      <c r="M10" s="28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="5:13" ht="26" x14ac:dyDescent="0.6">
+      <c r="E11" s="14"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="27">
+        <v>1</v>
+      </c>
+      <c r="H11" s="27">
+        <v>2</v>
+      </c>
+      <c r="I11" s="28">
+        <v>3</v>
+      </c>
+      <c r="J11" s="26">
+        <v>4</v>
+      </c>
+      <c r="K11" s="28">
+        <v>5</v>
+      </c>
+      <c r="L11" s="26">
+        <v>6</v>
+      </c>
+      <c r="M11" s="26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="5:13" ht="26" x14ac:dyDescent="0.6">
+      <c r="E12" s="14">
+        <v>6</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="26">
+        <v>1</v>
+      </c>
+      <c r="H12" s="26">
+        <v>2</v>
+      </c>
+      <c r="I12" s="27">
+        <v>3</v>
+      </c>
+      <c r="J12" s="27">
+        <v>4</v>
+      </c>
+      <c r="K12" s="27">
+        <v>5</v>
+      </c>
+      <c r="L12" s="28">
+        <v>6</v>
+      </c>
+      <c r="M12" s="28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="5:13" ht="26" x14ac:dyDescent="0.6">
+      <c r="E13" s="14"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="27">
+        <v>1</v>
+      </c>
+      <c r="H13" s="27">
+        <v>2</v>
+      </c>
+      <c r="I13" s="28">
+        <v>3</v>
+      </c>
+      <c r="J13" s="28">
+        <v>4</v>
+      </c>
+      <c r="K13" s="28">
+        <v>5</v>
+      </c>
+      <c r="L13" s="26">
+        <v>6</v>
+      </c>
+      <c r="M13" s="26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="5:13" ht="26" x14ac:dyDescent="0.6">
+      <c r="E14" s="14">
+        <v>7</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="26">
+        <v>1</v>
+      </c>
+      <c r="H14" s="26">
+        <v>2</v>
+      </c>
+      <c r="I14" s="27">
+        <v>3</v>
+      </c>
+      <c r="J14" s="27">
+        <v>4</v>
+      </c>
+      <c r="K14" s="27">
+        <v>5</v>
+      </c>
+      <c r="L14" s="28">
+        <v>6</v>
+      </c>
+      <c r="M14" s="28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="5:13" ht="26" x14ac:dyDescent="0.6">
+      <c r="E15" s="14"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="27">
+        <v>1</v>
+      </c>
+      <c r="H15" s="27">
+        <v>2</v>
+      </c>
+      <c r="I15" s="28">
+        <v>3</v>
+      </c>
+      <c r="J15" s="26">
+        <v>4</v>
+      </c>
+      <c r="K15" s="28">
+        <v>5</v>
+      </c>
+      <c r="L15" s="26">
+        <v>6</v>
+      </c>
+      <c r="M15" s="26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="5:13" ht="26" x14ac:dyDescent="0.6">
+      <c r="E16" s="14">
+        <v>8</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="26">
+        <v>1</v>
+      </c>
+      <c r="H16" s="26">
+        <v>2</v>
+      </c>
+      <c r="I16" s="27">
+        <v>3</v>
+      </c>
+      <c r="J16" s="27">
+        <v>4</v>
+      </c>
+      <c r="K16" s="27">
+        <v>5</v>
+      </c>
+      <c r="L16" s="28">
+        <v>6</v>
+      </c>
+      <c r="M16" s="28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="5:13" ht="26" x14ac:dyDescent="0.6">
+      <c r="E17" s="14"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="27">
+        <v>1</v>
+      </c>
+      <c r="H17" s="27">
+        <v>2</v>
+      </c>
+      <c r="I17" s="28">
+        <v>3</v>
+      </c>
+      <c r="J17" s="26">
+        <v>4</v>
+      </c>
+      <c r="K17" s="28">
+        <v>5</v>
+      </c>
+      <c r="L17" s="26">
+        <v>6</v>
+      </c>
+      <c r="M17" s="26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="5:13" ht="26" x14ac:dyDescent="0.6">
+      <c r="E18" s="14">
+        <v>9</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" s="26">
+        <v>1</v>
+      </c>
+      <c r="H18" s="26">
+        <v>2</v>
+      </c>
+      <c r="I18" s="27">
+        <v>3</v>
+      </c>
+      <c r="J18" s="27">
+        <v>4</v>
+      </c>
+      <c r="K18" s="27">
+        <v>5</v>
+      </c>
+      <c r="L18" s="28">
+        <v>6</v>
+      </c>
+      <c r="M18" s="28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="5:13" ht="26" x14ac:dyDescent="0.6">
+      <c r="E19" s="14"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="27">
+        <v>1</v>
+      </c>
+      <c r="H19" s="27">
+        <v>2</v>
+      </c>
+      <c r="I19" s="28">
+        <v>3</v>
+      </c>
+      <c r="J19" s="26">
+        <v>4</v>
+      </c>
+      <c r="K19" s="28">
+        <v>5</v>
+      </c>
+      <c r="L19" s="26">
+        <v>6</v>
+      </c>
+      <c r="M19" s="26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="5:13" ht="26" x14ac:dyDescent="0.6">
+      <c r="E20" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="G20" s="26">
+        <v>1</v>
+      </c>
+      <c r="H20" s="26">
+        <v>2</v>
+      </c>
+      <c r="I20" s="27">
+        <v>3</v>
+      </c>
+      <c r="J20" s="27">
+        <v>4</v>
+      </c>
+      <c r="K20" s="27">
+        <v>5</v>
+      </c>
+      <c r="L20" s="28">
+        <v>6</v>
+      </c>
+      <c r="M20" s="28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="5:13" ht="26" x14ac:dyDescent="0.6">
+      <c r="E21" s="14"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="27">
+        <v>1</v>
+      </c>
+      <c r="H21" s="27">
+        <v>2</v>
+      </c>
+      <c r="I21" s="28">
+        <v>3</v>
+      </c>
+      <c r="J21" s="28">
+        <v>4</v>
+      </c>
+      <c r="K21" s="28">
+        <v>5</v>
+      </c>
+      <c r="L21" s="26">
+        <v>6</v>
+      </c>
+      <c r="M21" s="26">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D59F98E6-B436-4BA5-A425-E05BFF84E7ED}">
+  <dimension ref="G2:I18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="7" max="7" width="23.08984375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="26.81640625" style="31" customWidth="1"/>
+    <col min="9" max="9" width="23.08984375" style="31" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="7:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="G2" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="7:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="G3" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3" s="36"/>
+    </row>
+    <row r="4" spans="7:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="G4" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" s="36" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="7:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="G5" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="36"/>
+    </row>
+    <row r="6" spans="7:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="G6" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="I6" s="36"/>
+    </row>
+    <row r="7" spans="7:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="G7" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="I7" s="36"/>
+    </row>
+    <row r="8" spans="7:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="G8" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="I8" s="36"/>
+    </row>
+    <row r="9" spans="7:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="G9" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="I9" s="36"/>
+    </row>
+    <row r="10" spans="7:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="G10" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="7:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="G11" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="7:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="G12" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="7:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="G13" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="7:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="G14" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="7:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="G15" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="7:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="G16" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="7:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="G17" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="7:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="G18" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/printer_box/color_sheet.xlsx
+++ b/printer_box/color_sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator.DESKTOP-QSF3VEN\Documents\everythin_new\voyager\transform_2023\printer_box\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF3AFBE-B533-4022-A9B1-86A8145D132C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56BCDB2-CF9D-4762-9674-CC97AB6BA8B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{F3C4C702-C153-4D61-87CE-A8BCAADA5423}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="6" xr2:uid="{F3C4C702-C153-4D61-87CE-A8BCAADA5423}"/>
   </bookViews>
   <sheets>
     <sheet name="pandas_topics" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="10_things" sheetId="3" r:id="rId4"/>
     <sheet name="books" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet2" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -498,7 +499,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -576,29 +577,35 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1535,11 +1542,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="6:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
     </row>
     <row r="2" spans="6:8" ht="18.5" x14ac:dyDescent="0.45">
       <c r="F2" s="19"/>
@@ -2232,175 +2239,193 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D59F98E6-B436-4BA5-A425-E05BFF84E7ED}">
   <dimension ref="G2:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="B13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="7" max="7" width="23.08984375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="26.81640625" style="31" customWidth="1"/>
-    <col min="9" max="9" width="23.08984375" style="31" customWidth="1"/>
+    <col min="7" max="7" width="23.08984375" style="29" customWidth="1"/>
+    <col min="8" max="8" width="26.81640625" style="30" customWidth="1"/>
+    <col min="9" max="9" width="23.08984375" style="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="7:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="33" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="3" spans="7:9" ht="58" x14ac:dyDescent="0.35">
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="H3" s="36" t="s">
+      <c r="H3" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="I3" s="36"/>
+      <c r="I3" s="35"/>
     </row>
     <row r="4" spans="7:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="H4" s="36" t="s">
+      <c r="H4" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="I4" s="35" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="5" spans="7:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="H5" s="36" t="s">
+      <c r="H5" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="I5" s="36"/>
+      <c r="I5" s="35"/>
     </row>
     <row r="6" spans="7:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="H6" s="36" t="s">
+      <c r="H6" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="I6" s="36"/>
-    </row>
-    <row r="7" spans="7:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="G7" s="35" t="s">
+      <c r="I6" s="35"/>
+    </row>
+    <row r="7" spans="7:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="G7" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="H7" s="36" t="s">
+      <c r="H7" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="I7" s="36"/>
+      <c r="I7" s="35"/>
     </row>
     <row r="8" spans="7:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="G8" s="35" t="s">
+      <c r="G8" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="H8" s="36" t="s">
+      <c r="H8" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="I8" s="36"/>
-    </row>
-    <row r="9" spans="7:9" ht="58" x14ac:dyDescent="0.35">
-      <c r="G9" s="35" t="s">
+      <c r="I8" s="35"/>
+    </row>
+    <row r="9" spans="7:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="G9" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="H9" s="36" t="s">
+      <c r="H9" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="I9" s="36"/>
+      <c r="I9" s="35"/>
     </row>
     <row r="10" spans="7:9" ht="58" x14ac:dyDescent="0.35">
-      <c r="G10" s="35" t="s">
+      <c r="G10" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36" t="s">
+      <c r="H10" s="35"/>
+      <c r="I10" s="35" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="11" spans="7:9" ht="58" x14ac:dyDescent="0.35">
-      <c r="G11" s="35" t="s">
+      <c r="G11" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36" t="s">
+      <c r="H11" s="35"/>
+      <c r="I11" s="35" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="12" spans="7:9" ht="58" x14ac:dyDescent="0.35">
-      <c r="G12" s="35" t="s">
+      <c r="G12" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36" t="s">
+      <c r="H12" s="35"/>
+      <c r="I12" s="35" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="13" spans="7:9" ht="58" x14ac:dyDescent="0.35">
-      <c r="G13" s="35" t="s">
+      <c r="G13" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36" t="s">
+      <c r="H13" s="35"/>
+      <c r="I13" s="35" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="14" spans="7:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="G14" s="35" t="s">
+      <c r="G14" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36" t="s">
+      <c r="H14" s="35"/>
+      <c r="I14" s="35" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="15" spans="7:9" ht="58" x14ac:dyDescent="0.35">
-      <c r="G15" s="35" t="s">
+      <c r="G15" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36" t="s">
+      <c r="H15" s="35"/>
+      <c r="I15" s="35" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="16" spans="7:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="G16" s="35" t="s">
+      <c r="G16" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36" t="s">
+      <c r="H16" s="35"/>
+      <c r="I16" s="35" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="17" spans="7:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="G17" s="35" t="s">
+      <c r="G17" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36" t="s">
+      <c r="H17" s="35"/>
+      <c r="I17" s="35" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="18" spans="7:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="G18" s="35" t="s">
+      <c r="G18" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36" t="s">
+      <c r="H18" s="35"/>
+      <c r="I18" s="35" t="s">
         <v>107</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAFA6480-A1EF-408C-BB86-C57F535F019F}">
+  <dimension ref="F1:G1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C18" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="10.1796875" style="37" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="65.90625" style="38" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/printer_box/color_sheet.xlsx
+++ b/printer_box/color_sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator.DESKTOP-QSF3VEN\Documents\everythin_new\voyager\transform_2023\printer_box\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56BCDB2-CF9D-4762-9674-CC97AB6BA8B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188E421C-516D-4784-AC65-7C3C0FAAEED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="6" xr2:uid="{F3C4C702-C153-4D61-87CE-A8BCAADA5423}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="8" xr2:uid="{F3C4C702-C153-4D61-87CE-A8BCAADA5423}"/>
   </bookViews>
   <sheets>
     <sheet name="pandas_topics" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,8 @@
     <sheet name="books" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet2" sheetId="7" r:id="rId6"/>
     <sheet name="Sheet3" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet4" sheetId="9" r:id="rId8"/>
+    <sheet name="Sheet5" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="172">
   <si>
     <t>#</t>
   </si>
@@ -355,6 +357,198 @@
   </si>
   <si>
     <t>- Analyzing time-ordered data points.</t>
+  </si>
+  <si>
+    <t>DataFrame</t>
+  </si>
+  <si>
+    <t>Column Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Data Type</t>
+  </si>
+  <si>
+    <t>df_customer</t>
+  </si>
+  <si>
+    <t>CustomerID</t>
+  </si>
+  <si>
+    <t>Unique identifier for each customer</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Age of the customer</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Gender of the customer (Male/Female/Other)</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Geographical region of the customer</t>
+  </si>
+  <si>
+    <t>Income</t>
+  </si>
+  <si>
+    <t>Annual income of the customer</t>
+  </si>
+  <si>
+    <t>Float</t>
+  </si>
+  <si>
+    <t>Employment_Status</t>
+  </si>
+  <si>
+    <t>Employment status of the customer</t>
+  </si>
+  <si>
+    <t>Tenure</t>
+  </si>
+  <si>
+    <t>Number of months the customer has been with bank</t>
+  </si>
+  <si>
+    <t>df_account</t>
+  </si>
+  <si>
+    <t>Account_Balance</t>
+  </si>
+  <si>
+    <t>Current balance in the savings account</t>
+  </si>
+  <si>
+    <t>Average_Monthly_Deposit</t>
+  </si>
+  <si>
+    <t>Average amount deposited each month</t>
+  </si>
+  <si>
+    <t>Average_Monthly_Withdrawal</t>
+  </si>
+  <si>
+    <t>Average amount withdrawn each month</t>
+  </si>
+  <si>
+    <t>Overdraft_Count</t>
+  </si>
+  <si>
+    <t>Number of times account went into overdraft</t>
+  </si>
+  <si>
+    <t>df_interaction</t>
+  </si>
+  <si>
+    <t>Contact_Count</t>
+  </si>
+  <si>
+    <t>Number of times customer contacted bank</t>
+  </si>
+  <si>
+    <t>Issue_Resolution_Time</t>
+  </si>
+  <si>
+    <t>Average time taken to resolve customer issues</t>
+  </si>
+  <si>
+    <t>Customer_Satisfaction</t>
+  </si>
+  <si>
+    <t>Satisfaction score provided by the customer</t>
+  </si>
+  <si>
+    <t>df_digital</t>
+  </si>
+  <si>
+    <t>Online_Banking_Usage</t>
+  </si>
+  <si>
+    <t>Frequency of online banking usage</t>
+  </si>
+  <si>
+    <t>Mobile_App_Usage</t>
+  </si>
+  <si>
+    <t>Frequency of mobile app usage</t>
+  </si>
+  <si>
+    <t>Digital_Payment_Usage</t>
+  </si>
+  <si>
+    <t>Frequency of using digital payment methods</t>
+  </si>
+  <si>
+    <t>df_churn</t>
+  </si>
+  <si>
+    <t>Churn_Status</t>
+  </si>
+  <si>
+    <t>Whether the customer churned (1: Yes, 0: No)</t>
+  </si>
+  <si>
+    <t>Churn_Date</t>
+  </si>
+  <si>
+    <t>Date when the customer churned</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Account_start_date</t>
+  </si>
+  <si>
+    <t>Type of t-Test</t>
+  </si>
+  <si>
+    <t>Situation</t>
+  </si>
+  <si>
+    <t>Simple Example</t>
+  </si>
+  <si>
+    <t>1. One-Sample t-Test</t>
+  </si>
+  <si>
+    <t>Used to compare the mean of a single sample to a known or hypothesized population mean.</t>
+  </si>
+  <si>
+    <t>You hypothesize that the average height of students in a class is 5.5 feet. You take a sample and use a one-sample t-test to determine if the mean height of your sample significantly differs from 5.5 feet.</t>
+  </si>
+  <si>
+    <t>2. Two-Sample t-Test (Independent)</t>
+  </si>
+  <si>
+    <t>Compares the means of two independent groups. Suitable when you have two distinct groups you want to compare.</t>
+  </si>
+  <si>
+    <t>You have two different teaching methods and two groups of students. Method A is applied to Group 1, and Method B to Group 2. You use a two-sample t-test to compare the average test scores of the two groups to see if one method is more effective.</t>
+  </si>
+  <si>
+    <t>3. Paired Sample t-Test</t>
+  </si>
+  <si>
+    <t>Used when you have two related groups or repeated measurements on a single group.</t>
+  </si>
+  <si>
+    <t>You measure the blood pressure of 10 individuals before and after they undergo a 2-month exercise program. You use a paired t-test to see if there is a significant change in blood pressure after completion of the program.</t>
   </si>
 </sst>
 </file>
@@ -398,7 +592,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -471,6 +665,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -499,7 +705,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -598,14 +804,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -615,8 +851,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCCFF99"/>
       <color rgb="FFFFCCFF"/>
-      <color rgb="FFCCFF99"/>
       <color rgb="FF6699FF"/>
     </mruColors>
   </colors>
@@ -1542,11 +1778,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="6:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="2" spans="6:8" ht="18.5" x14ac:dyDescent="0.45">
       <c r="F2" s="19"/>
@@ -2416,16 +2652,391 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAFA6480-A1EF-408C-BB86-C57F535F019F}">
   <dimension ref="F1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C18" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView topLeftCell="C18" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C18" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="6" width="10.1796875" style="37" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="65.90625" style="38" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="65.90625" style="37" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA7C9AF-D1AC-4A0B-BAC4-8BD430CB1DD6}">
+  <dimension ref="B3:E27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="22.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.26953125" style="38"/>
+    <col min="2" max="2" width="26.81640625" style="38" customWidth="1"/>
+    <col min="3" max="3" width="43.1796875" style="38" customWidth="1"/>
+    <col min="4" max="4" width="22.26953125" style="39"/>
+    <col min="5" max="16384" width="22.26953125" style="38"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B3" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="B4" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B5" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B6" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B7" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B8" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B9" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B10" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="B11" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" s="43" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B12" s="38" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B13" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B14" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B15" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B16" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="B17" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="E17" s="43" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B18" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B19" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B20" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B21" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="C21" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="D21" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="E21" s="43" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B22" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B23" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="D23" s="39" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B24" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="D24" s="39" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B25" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="C25" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="E25" s="43" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B26" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="D26" s="39" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B27" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="C27" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="D27" s="39" t="s">
+        <v>158</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA2B549-4506-496A-9239-89B3ACC01DB3}">
+  <dimension ref="E2:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="4" width="8.7265625" style="38"/>
+    <col min="5" max="5" width="17.7265625" style="39" customWidth="1"/>
+    <col min="6" max="6" width="29.54296875" style="39" customWidth="1"/>
+    <col min="7" max="7" width="36.08984375" style="39" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="38"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E2" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="F2" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2" s="48" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="5:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="E3" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="G3" s="39" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="5:7" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="E4" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="5:7" ht="87" x14ac:dyDescent="0.35">
+      <c r="E5" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/printer_box/color_sheet.xlsx
+++ b/printer_box/color_sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator.DESKTOP-QSF3VEN\Documents\everythin_new\voyager\transform_2023\printer_box\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188E421C-516D-4784-AC65-7C3C0FAAEED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBCAD4A-F601-4095-8321-0DD532299F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="8" xr2:uid="{F3C4C702-C153-4D61-87CE-A8BCAADA5423}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="9" xr2:uid="{F3C4C702-C153-4D61-87CE-A8BCAADA5423}"/>
   </bookViews>
   <sheets>
     <sheet name="pandas_topics" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Sheet3" sheetId="8" r:id="rId7"/>
     <sheet name="Sheet4" sheetId="9" r:id="rId8"/>
     <sheet name="Sheet5" sheetId="10" r:id="rId9"/>
+    <sheet name="Sheet6" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="189">
   <si>
     <t>#</t>
   </si>
@@ -359,203 +360,254 @@
     <t>- Analyzing time-ordered data points.</t>
   </si>
   <si>
-    <t>DataFrame</t>
-  </si>
-  <si>
-    <t>Column Name</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
-    <t>Data Type</t>
-  </si>
-  <si>
-    <t>df_customer</t>
-  </si>
-  <si>
-    <t>CustomerID</t>
-  </si>
-  <si>
-    <t>Unique identifier for each customer</t>
-  </si>
-  <si>
-    <t>Integer</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Age of the customer</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Gender of the customer (Male/Female/Other)</t>
-  </si>
-  <si>
-    <t>String</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>Geographical region of the customer</t>
-  </si>
-  <si>
-    <t>Income</t>
-  </si>
-  <si>
-    <t>Annual income of the customer</t>
-  </si>
-  <si>
-    <t>Float</t>
-  </si>
-  <si>
-    <t>Employment_Status</t>
-  </si>
-  <si>
-    <t>Employment status of the customer</t>
-  </si>
-  <si>
-    <t>Tenure</t>
-  </si>
-  <si>
-    <t>Number of months the customer has been with bank</t>
-  </si>
-  <si>
-    <t>df_account</t>
-  </si>
-  <si>
-    <t>Account_Balance</t>
-  </si>
-  <si>
-    <t>Current balance in the savings account</t>
-  </si>
-  <si>
-    <t>Average_Monthly_Deposit</t>
-  </si>
-  <si>
-    <t>Average amount deposited each month</t>
-  </si>
-  <si>
-    <t>Average_Monthly_Withdrawal</t>
-  </si>
-  <si>
-    <t>Average amount withdrawn each month</t>
-  </si>
-  <si>
-    <t>Overdraft_Count</t>
-  </si>
-  <si>
-    <t>Number of times account went into overdraft</t>
-  </si>
-  <si>
-    <t>df_interaction</t>
-  </si>
-  <si>
-    <t>Contact_Count</t>
-  </si>
-  <si>
-    <t>Number of times customer contacted bank</t>
-  </si>
-  <si>
-    <t>Issue_Resolution_Time</t>
-  </si>
-  <si>
-    <t>Average time taken to resolve customer issues</t>
-  </si>
-  <si>
-    <t>Customer_Satisfaction</t>
-  </si>
-  <si>
-    <t>Satisfaction score provided by the customer</t>
-  </si>
-  <si>
-    <t>df_digital</t>
-  </si>
-  <si>
-    <t>Online_Banking_Usage</t>
-  </si>
-  <si>
-    <t>Frequency of online banking usage</t>
-  </si>
-  <si>
-    <t>Mobile_App_Usage</t>
-  </si>
-  <si>
-    <t>Frequency of mobile app usage</t>
-  </si>
-  <si>
-    <t>Digital_Payment_Usage</t>
-  </si>
-  <si>
-    <t>Frequency of using digital payment methods</t>
-  </si>
-  <si>
-    <t>df_churn</t>
-  </si>
-  <si>
-    <t>Churn_Status</t>
-  </si>
-  <si>
-    <t>Whether the customer churned (1: Yes, 0: No)</t>
-  </si>
-  <si>
-    <t>Churn_Date</t>
-  </si>
-  <si>
-    <t>Date when the customer churned</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Account_start_date</t>
-  </si>
-  <si>
-    <t>Type of t-Test</t>
-  </si>
-  <si>
     <t>Situation</t>
   </si>
   <si>
     <t>Simple Example</t>
   </si>
   <si>
-    <t>1. One-Sample t-Test</t>
-  </si>
-  <si>
-    <t>Used to compare the mean of a single sample to a known or hypothesized population mean.</t>
-  </si>
-  <si>
-    <t>You hypothesize that the average height of students in a class is 5.5 feet. You take a sample and use a one-sample t-test to determine if the mean height of your sample significantly differs from 5.5 feet.</t>
-  </si>
-  <si>
-    <t>2. Two-Sample t-Test (Independent)</t>
-  </si>
-  <si>
-    <t>Compares the means of two independent groups. Suitable when you have two distinct groups you want to compare.</t>
-  </si>
-  <si>
-    <t>You have two different teaching methods and two groups of students. Method A is applied to Group 1, and Method B to Group 2. You use a two-sample t-test to compare the average test scores of the two groups to see if one method is more effective.</t>
-  </si>
-  <si>
-    <t>3. Paired Sample t-Test</t>
-  </si>
-  <si>
-    <t>Used when you have two related groups or repeated measurements on a single group.</t>
-  </si>
-  <si>
-    <t>You measure the blood pressure of 10 individuals before and after they undergo a 2-month exercise program. You use a paired t-test to see if there is a significant change in blood pressure after completion of the program.</t>
+    <t>Type of ANOVA</t>
+  </si>
+  <si>
+    <t>1. One-Way ANOVA</t>
+  </si>
+  <si>
+    <t>Used to test the difference between the means of three or more independent groups.</t>
+  </si>
+  <si>
+    <t>A teacher wants to know if three different teaching methods have different effects on students' test scores. She has three groups of students, each taught by a different method, and compares the average test scores of each group.</t>
+  </si>
+  <si>
+    <t>2. Two-Way ANOVA</t>
+  </si>
+  <si>
+    <t>Used when there are two independent variables. It assesses the individual and interactive effects of the two variables on the dependent variable.</t>
+  </si>
+  <si>
+    <t>Researchers are studying the effects of different teaching methods and different class durations on students' test scores. They compare the test scores of students taught with different methods and with different class lengths to understand the effects of both factors.</t>
+  </si>
+  <si>
+    <t>3. Repeated Measures ANOVA</t>
+  </si>
+  <si>
+    <t>Used for comparing the means when the same subjects are used for each treatment (i.e., repeated measures).</t>
+  </si>
+  <si>
+    <t>A fitness instructor wants to know the effects of three different exercise programs on weight loss. The same individuals participate in all three programs, and their weight loss is measured after each.</t>
+  </si>
+  <si>
+    <t>Technical Interview Questions</t>
+  </si>
+  <si>
+    <t>random_state</t>
+  </si>
+  <si>
+    <t>verbose</t>
+  </si>
+  <si>
+    <t>tol</t>
+  </si>
+  <si>
+    <t>Relative tolerance with regards to inertia to declare convergence.</t>
+  </si>
+  <si>
+    <t>precompute_distances</t>
+  </si>
+  <si>
+    <t>Precompute distances (faster but takes more memory). Can be 'auto', True, or False.</t>
+  </si>
+  <si>
+    <t>Verbosity mode for more detailed output during the algorithm's runtime.</t>
+  </si>
+  <si>
+    <t>Determines random number generation for centroid initialization. Use an int to make the randomness deterministic.</t>
+  </si>
+  <si>
+    <t>copy_x</t>
+  </si>
+  <si>
+    <t>When precomputing distances, it can be more numerically accurate to center the data first. If copy_x is True, then the original data is not modified.</t>
+  </si>
+  <si>
+    <t>algorithm</t>
+  </si>
+  <si>
+    <t>K-means algorithm to use. The classical EM-style algorithm is “full”. The “elkan” variation is more efficient but not available for sparse data.</t>
+  </si>
+  <si>
+    <t>These hyperparameters allow you to fine-tune the behavior of the K-means algorithm, influencing its speed, accuracy, and overall performance in clustering and outlier detection tasks.</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Pros and cons of K means for outlier in a table</t>
+  </si>
+  <si>
+    <t>ChatGPT</t>
+  </si>
+  <si>
+    <t>Certainly! Below is a table that outlines the pros and cons of using K-means for outlier detection:</t>
+  </si>
+  <si>
+    <t>Pros</t>
+  </si>
+  <si>
+    <t>Cons</t>
+  </si>
+  <si>
+    <t>Simple and Easy to Implement: K-means is straightforward to understand and implement, making it accessible for users without advanced technical expertise.</t>
+  </si>
+  <si>
+    <t>Assumes Spherical Clusters: K-means assumes that clusters are spherical and equally sized, which might not be the case in real-world data, leading to inaccurate clustering and outlier detection.</t>
+  </si>
+  <si>
+    <t>Scalability: With efficient implementations, K-means can be scaled to handle large datasets relatively efficiently.</t>
+  </si>
+  <si>
+    <t>Sensitive to Initial Centroids: The algorithm's results can vary based on the initial placement of centroids, possibly leading to different outcomes with different initializations.</t>
+  </si>
+  <si>
+    <t>Visualization: The results of K-means are relatively easy to visualize and interpret, aiding in understanding the detected outliers.</t>
+  </si>
+  <si>
+    <t>Requires Specification of K: The number of clusters (K) must be specified beforehand, which might not be straightforward in all datasets, requiring methods like the elbow method or silhouette analysis to estimate the optimal K.</t>
+  </si>
+  <si>
+    <t>Fast Convergence: Typically, K-means converges quickly to a solution, making it relatively fast.</t>
+  </si>
+  <si>
+    <t>Not Robust to Noisy Data: Outliers themselves can sometimes adversely affect the clustering process, skewing the centroids and potentially leading to less accurate detection of additional outliers.</t>
+  </si>
+  <si>
+    <t>Versatility: Can be used for various types of data as long as a meaningful distance metric is available.</t>
+  </si>
+  <si>
+    <t>Doesn’t Handle Different Density Clusters Well: In datasets where clusters have different densities, K-means may struggle to accurately assign points to the correct cluster and identify outliers.</t>
+  </si>
+  <si>
+    <t>Understanding these advantages and limitations of K-means for outlier detection can help you decide whether it is the appropriate technique for your specific application and how to mitigate potential issues that might arise during its use.</t>
+  </si>
+  <si>
+    <t>Criteria</t>
+  </si>
+  <si>
+    <t>K-means</t>
+  </si>
+  <si>
+    <t>Hierarchical Clustering</t>
+  </si>
+  <si>
+    <t>DBSCAN</t>
+  </si>
+  <si>
+    <t>Data Shape</t>
+  </si>
+  <si>
+    <t>Works best when data is globular (spherical in shape).</t>
+  </si>
+  <si>
+    <t>Can work with various shapes of data but might be sensitive to noise.</t>
+  </si>
+  <si>
+    <t>Ideal for data of arbitrary shape (non-globular) and can handle noise well.</t>
+  </si>
+  <si>
+    <t>Cluster Number</t>
+  </si>
+  <si>
+    <t>Requires the number of clusters (K) to be specified in advance.</t>
+  </si>
+  <si>
+    <t>No need to specify the number of clusters beforehand; dendrogram helps decide.</t>
+  </si>
+  <si>
+    <t>Does not require specifying the number of clusters but needs density parameters to be tuned.</t>
+  </si>
+  <si>
+    <t>Scalability</t>
+  </si>
+  <si>
+    <t>Scalable to large datasets, especially with optimized implementations.</t>
+  </si>
+  <si>
+    <t>Computationally intensive, not ideal for very large datasets.</t>
+  </si>
+  <si>
+    <t>Can handle larger datasets than hierarchical clustering but is sensitive to parameter selection.</t>
+  </si>
+  <si>
+    <t>Noise Handling</t>
+  </si>
+  <si>
+    <t>Sensitive to noise and outliers.</t>
+  </si>
+  <si>
+    <t>Robust to noise due to its density-based nature.</t>
+  </si>
+  <si>
+    <t>Cluster Assignment</t>
+  </si>
+  <si>
+    <t>All points are assigned to a cluster, even if they are outliers.</t>
+  </si>
+  <si>
+    <t>All points are assigned to a cluster.</t>
+  </si>
+  <si>
+    <t>Points can be classified as noise, not assigned to any cluster.</t>
+  </si>
+  <si>
+    <t>Cluster Structure</t>
+  </si>
+  <si>
+    <t>Assumes spherical clusters with similar sizes and densities.</t>
+  </si>
+  <si>
+    <t>Can adapt to clusters of different shapes but may struggle with different densities.</t>
+  </si>
+  <si>
+    <t>Can find clusters of arbitrary shapes and is less sensitive to the density difference.</t>
+  </si>
+  <si>
+    <t>Use Case Examples</t>
+  </si>
+  <si>
+    <t>When you have a fair idea of the number of distinct groups and expect groups to be spherical. For example, customer segmentation based on purchasing behavior.</t>
+  </si>
+  <si>
+    <t>When you want to understand hierarchical relationships in data or the data represents nested categories. Useful in phylogenetic trees, document similarity analysis.</t>
+  </si>
+  <si>
+    <t>When clusters are of irregular shape, and there is substantial noise in the data. Ideal for spatial data analysis, image segmentation.</t>
+  </si>
+  <si>
+    <t>Interpretability</t>
+  </si>
+  <si>
+    <t>Easy to understand and interpret.</t>
+  </si>
+  <si>
+    <t>Dendrogram provides a visual representation of cluster hierarchy, aiding interpretation.</t>
+  </si>
+  <si>
+    <t>Requires understanding of density concepts, making it slightly less intuitive than the others.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM </t>
+  </si>
+  <si>
+    <t>PM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -591,8 +643,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -667,13 +726,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,7 +758,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -816,32 +869,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1166,7 +1213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EB3ACCF-ED76-47C2-AF87-E208DF101364}">
   <dimension ref="G1:H61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -1621,6 +1668,132 @@
         <v>60</v>
       </c>
       <c r="H61" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{193E219B-81B7-4123-8F49-EBCFF8CE1EAC}">
+  <dimension ref="F4:I18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="8.7265625" style="9"/>
+    <col min="7" max="7" width="20.08984375" customWidth="1"/>
+    <col min="8" max="8" width="0.6328125" customWidth="1"/>
+    <col min="9" max="9" width="9.1796875" style="9" customWidth="1"/>
+    <col min="10" max="10" width="24.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="6:9" x14ac:dyDescent="0.35">
+      <c r="F4" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="6:9" x14ac:dyDescent="0.35">
+      <c r="F5" s="9">
+        <v>12</v>
+      </c>
+      <c r="I5" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="6:9" x14ac:dyDescent="0.35">
+      <c r="F6" s="9">
+        <v>1</v>
+      </c>
+      <c r="I6" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="6:9" x14ac:dyDescent="0.35">
+      <c r="F7" s="9">
+        <v>2</v>
+      </c>
+      <c r="I7" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="6:9" x14ac:dyDescent="0.35">
+      <c r="F8" s="9">
+        <v>3</v>
+      </c>
+      <c r="I8" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="6:9" x14ac:dyDescent="0.35">
+      <c r="F10" s="9">
+        <v>4</v>
+      </c>
+      <c r="I10" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="6:9" x14ac:dyDescent="0.35">
+      <c r="F11" s="9">
+        <v>5</v>
+      </c>
+      <c r="I11" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="6:9" x14ac:dyDescent="0.35">
+      <c r="F12" s="9">
+        <v>6</v>
+      </c>
+      <c r="I12" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="6:9" x14ac:dyDescent="0.35">
+      <c r="F13" s="9">
+        <v>7</v>
+      </c>
+      <c r="I13" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="6:9" x14ac:dyDescent="0.35">
+      <c r="F15" s="9">
+        <v>8</v>
+      </c>
+      <c r="I15" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="6:9" x14ac:dyDescent="0.35">
+      <c r="F16" s="9">
+        <v>9</v>
+      </c>
+      <c r="I16" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="6:9" x14ac:dyDescent="0.35">
+      <c r="F17" s="9">
+        <v>10</v>
+      </c>
+      <c r="I17" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="6:9" x14ac:dyDescent="0.35">
+      <c r="F18" s="9">
+        <v>11</v>
+      </c>
+      <c r="I18" s="9">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1643,7 +1816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52ACC3EA-9DD8-4C88-AF03-28777A66ED69}">
   <dimension ref="E3:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E3" sqref="E3:J11"/>
     </sheetView>
   </sheetViews>
@@ -1778,11 +1951,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="6:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
     </row>
     <row r="2" spans="6:8" ht="18.5" x14ac:dyDescent="0.45">
       <c r="F2" s="19"/>
@@ -1916,7 +2089,7 @@
   <dimension ref="E2:M21"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="E2" sqref="A2:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2653,7 +2826,7 @@
   <dimension ref="F1:G1"/>
   <sheetViews>
     <sheetView topLeftCell="C18" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C18" sqref="A1:XFD1048576"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2668,306 +2841,336 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA7C9AF-D1AC-4A0B-BAC4-8BD430CB1DD6}">
-  <dimension ref="B3:E27"/>
+  <dimension ref="B2:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:E27"/>
+      <selection activeCell="B4" sqref="B4:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22.26953125" style="38"/>
-    <col min="2" max="2" width="26.81640625" style="38" customWidth="1"/>
-    <col min="3" max="3" width="43.1796875" style="38" customWidth="1"/>
-    <col min="4" max="4" width="22.26953125" style="39"/>
-    <col min="5" max="16384" width="22.26953125" style="38"/>
+    <col min="2" max="2" width="21.6328125" style="46" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.36328125" style="39" customWidth="1"/>
+    <col min="4" max="16384" width="22.26953125" style="38"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B2" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>121</v>
+      </c>
+    </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="D3" s="45" t="s">
-        <v>110</v>
-      </c>
-      <c r="E3" s="44" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="B4" s="40" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="E4" s="43" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B5" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="D5" s="39" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B6" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="D6" s="39" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B7" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="C7" s="38" t="s">
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B4" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B5" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B6" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B7" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="B8" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B9" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>172</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="B10" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>176</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="116" x14ac:dyDescent="0.35">
+      <c r="B11" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="B12" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B13" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="D13" s="33"/>
+      <c r="E13" s="41"/>
+    </row>
+    <row r="14" spans="2:5" ht="116" x14ac:dyDescent="0.35">
+      <c r="B14" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B15" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="87" x14ac:dyDescent="0.35">
+      <c r="B16" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B17" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B18" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B19" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" s="41" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="B20" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B21" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C21" s="41" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="B22" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="D7" s="39" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B8" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B9" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B10" s="38" t="s">
-        <v>128</v>
-      </c>
-      <c r="C10" s="38" t="s">
+      <c r="C22" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="D10" s="39" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="B11" s="40" t="s">
+    </row>
+    <row r="23" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="B23" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="C11" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="D11" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="E11" s="43" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B12" s="38" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B13" s="38" t="s">
+      <c r="C23" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="C13" s="38" t="s">
+    </row>
+    <row r="24" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="B24" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="D13" s="39" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B14" s="38" t="s">
+      <c r="C24" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="C14" s="38" t="s">
+    </row>
+    <row r="27" spans="2:3" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="B27" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="D14" s="39" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B15" s="38" t="s">
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B28" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="C15" s="38" t="s">
+    </row>
+    <row r="29" spans="2:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B29" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="D15" s="39" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B16" s="38" t="s">
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B30" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="C16" s="38" t="s">
+    </row>
+    <row r="31" spans="2:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B31" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="D16" s="39" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="B17" s="40" t="s">
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B34" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="C17" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="D17" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="E17" s="43" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B18" s="38" t="s">
+      <c r="C34" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="C18" s="38" t="s">
+    </row>
+    <row r="35" spans="2:3" ht="116" x14ac:dyDescent="0.35">
+      <c r="B35" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="D18" s="39" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B19" s="38" t="s">
+      <c r="C35" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="C19" s="38" t="s">
+    </row>
+    <row r="36" spans="2:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B36" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="D19" s="39" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B20" s="38" t="s">
+      <c r="C36" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="C20" s="38" t="s">
+    </row>
+    <row r="37" spans="2:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="B37" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="D20" s="39" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B21" s="40" t="s">
+      <c r="C37" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="C21" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="D21" s="41" t="s">
-        <v>114</v>
-      </c>
-      <c r="E21" s="43" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B22" s="38" t="s">
+    </row>
+    <row r="38" spans="2:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B38" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C38" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="D22" s="39" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B23" s="38" t="s">
+    </row>
+    <row r="39" spans="2:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B39" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="C23" s="38" t="s">
+      <c r="C39" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="D23" s="39" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B24" s="38" t="s">
+    </row>
+    <row r="42" spans="2:3" ht="174" x14ac:dyDescent="0.35">
+      <c r="B42" s="46" t="s">
         <v>151</v>
-      </c>
-      <c r="C24" s="38" t="s">
-        <v>152</v>
-      </c>
-      <c r="D24" s="39" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B25" s="40" t="s">
-        <v>153</v>
-      </c>
-      <c r="C25" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="D25" s="41" t="s">
-        <v>114</v>
-      </c>
-      <c r="E25" s="43" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B26" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="C26" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="D26" s="39" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B27" s="38" t="s">
-        <v>156</v>
-      </c>
-      <c r="C27" s="38" t="s">
-        <v>157</v>
-      </c>
-      <c r="D27" s="39" t="s">
-        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -2979,7 +3182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA2B549-4506-496A-9239-89B3ACC01DB3}">
   <dimension ref="E2:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2:G5"/>
     </sheetView>
   </sheetViews>
@@ -2993,47 +3196,47 @@
   </cols>
   <sheetData>
     <row r="2" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E2" s="42" t="s">
-        <v>160</v>
-      </c>
-      <c r="F2" s="47" t="s">
-        <v>161</v>
-      </c>
-      <c r="G2" s="48" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="3" spans="5:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="E2" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" s="42" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="5:7" ht="87" x14ac:dyDescent="0.35">
       <c r="E3" s="39" t="s">
-        <v>163</v>
+        <v>112</v>
       </c>
       <c r="F3" s="39" t="s">
-        <v>164</v>
+        <v>113</v>
       </c>
       <c r="G3" s="39" t="s">
-        <v>165</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="5:7" ht="101.5" x14ac:dyDescent="0.35">
       <c r="E4" s="39" t="s">
-        <v>166</v>
+        <v>115</v>
       </c>
       <c r="F4" s="39" t="s">
-        <v>167</v>
+        <v>116</v>
       </c>
       <c r="G4" s="39" t="s">
-        <v>168</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="5:7" ht="87" x14ac:dyDescent="0.35">
       <c r="E5" s="39" t="s">
-        <v>169</v>
+        <v>118</v>
       </c>
       <c r="F5" s="39" t="s">
-        <v>170</v>
+        <v>119</v>
       </c>
       <c r="G5" s="39" t="s">
-        <v>171</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
